--- a/biology/Histoire de la zoologie et de la botanique/Paul_Lebesconte/Paul_Lebesconte.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paul_Lebesconte/Paul_Lebesconte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Lebesconte, né le 8 mai 1842 à Quimper[1] et mort le 13 décembre 1905 à Rennes[2], est un pharmacien et paléontologue français.  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Lebesconte, né le 8 mai 1842 à Quimper et mort le 13 décembre 1905 à Rennes, est un pharmacien et paléontologue français.  
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'un pharmacien, il devient pharmacien à Rennes, il s'est occupé surtout des formations géologiques de la Bretagne. Membre de la Société géologique de France depuis 1872, il a réussi à réunir une collection paléontologique qui à la suite d'une souscription effectuée par un comité scientifique[3] a été déposée au Muséum d'histoire naturelle de Nantes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'un pharmacien, il devient pharmacien à Rennes, il s'est occupé surtout des formations géologiques de la Bretagne. Membre de la Société géologique de France depuis 1872, il a réussi à réunir une collection paléontologique qui à la suite d'une souscription effectuée par un comité scientifique a été déposée au Muséum d'histoire naturelle de Nantes.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1870 : Note sur les fossiles recueillis dans les faluns de la Bretagne, Bulletin de la Société géologique de France, 2e série, t. XXVII, p. 702.
 1875 : avec Gaston de Tromelin, Note sur quelques fossiles des grès siluriens de Saint-Germain-sur-Ille, la Bouexière, Champeaux, etc. (Ille-et-Vilaine), Quimper : impr. de C. Cotonnec, 1875. In-8°, 8 p.
